--- a/Rasp/ivcht11.xlsx
+++ b/Rasp/ivcht11.xlsx
@@ -212,26 +212,39 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
       <name val="Times New Roman CYR"/>
     </font>
     <font>
       <sz val="8.0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="8.0"/>
       <name val="Times New Roman CYR"/>
     </font>
     <font>
       <b/>
       <sz val="8.0"/>
-      <color theme="1"/>
       <name val="Times New Roman CYR"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,13 +255,27 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -258,14 +285,29 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,140 +532,158 @@
     </row>
     <row r="2">
       <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2"/>
@@ -634,169 +694,187 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16">
       <c r="A16" s="2"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="5" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="5" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
+      <c r="A26" s="9"/>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
+      <c r="A27" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
